--- a/moyusi/Keywords/Web/业绩模块-成交金额业绩.xlsx
+++ b/moyusi/Keywords/Web/业绩模块-成交金额业绩.xlsx
@@ -875,7 +875,7 @@
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="20" customWidth="1"/>
     <col min="5" max="5" width="23.375" style="1" customWidth="1"/>

--- a/moyusi/Keywords/Web/业绩模块-成交金额业绩.xlsx
+++ b/moyusi/Keywords/Web/业绩模块-成交金额业绩.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="106">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>if结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-“业绩”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-collapse-item__header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if_文本包含</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,178 +271,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-dialog__body</t>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='十一月']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-十一月按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-门店业绩输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='编辑']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[4]/div/div[2]/div/div[2]/div/button[2]/span</t>
+  </si>
+  <si>
+    <t>输入_classname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-button submit el-button--default']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='成交金额业绩']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第三个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第三个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第四个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第四个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第五个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第五个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第六个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第六个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第七个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第七个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第八个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第八个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第九个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第九个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十一个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十一个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十二个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十二个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十三个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十三个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十四个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十四个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第十五个门店输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-第十五个门店业绩数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-成交金额业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动屏幕-向上滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检查点-编辑业绩窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='十一月']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-十一月按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-门店业绩输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='编辑']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上滑动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[4]/div/div[2]/div/div[2]/div/button[2]/span</t>
-  </si>
-  <si>
-    <t>输入_classname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>else</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class='el-button submit el-button--default']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='成交金额业绩']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第三个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第三个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第四个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第四个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第五个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第五个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第六个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第六个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第七个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第七个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第八个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第八个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第九个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第九个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十一个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十一个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十二个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十二个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十三个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十三个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十四个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十四个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第十五个门店输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-第十五个门店业绩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-成交金额业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -585,6 +585,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -868,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -952,26 +954,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>49</v>
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="8" t="s">
@@ -979,170 +980,173 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="15"/>
+      <c r="D13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="D14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="D15" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="15"/>
       <c r="D16" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="16"/>
+    </row>
+    <row r="17" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="D18" s="21" t="s">
-        <v>37</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1158,18 +1162,15 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>49</v>
+      <c r="A20" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="14">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -1187,305 +1188,305 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
+      <c r="A22" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10"/>
+    <row r="23" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="21">
+        <v>9999</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="14">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="14">
-        <v>4</v>
-      </c>
-      <c r="D25" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="16"/>
+    <row r="25" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>52</v>
+      <c r="A26" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
+      <c r="A28" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="14">
+        <v>5</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="D30" s="21">
+        <v>9999</v>
+      </c>
       <c r="E30" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="14">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="14">
-        <v>5</v>
-      </c>
-      <c r="D32" s="21">
-        <v>9999</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="16"/>
+    <row r="32" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>52</v>
+      <c r="A33" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>20</v>
+      <c r="A35" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="14" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>56</v>
-      </c>
+    <row r="36" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="14">
+        <v>6</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="14">
         <v>6</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="21">
+        <v>9999</v>
+      </c>
       <c r="E37" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="14">
-        <v>6</v>
-      </c>
-      <c r="D38" s="21">
-        <v>9999</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D38" s="21"/>
       <c r="E38" s="14" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>52</v>
+      <c r="A39" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="14">
         <v>7</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="14">
         <v>7</v>
@@ -1494,20 +1495,20 @@
         <v>9999</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -1529,47 +1530,47 @@
         <v>20</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="14">
         <v>8</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="14">
         <v>8</v>
@@ -1578,20 +1579,20 @@
         <v>9999</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -1613,47 +1614,47 @@
         <v>20</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="14">
         <v>9</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="14">
         <v>9</v>
@@ -1662,20 +1663,20 @@
         <v>9999</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="16"/>
     </row>
@@ -1697,47 +1698,47 @@
         <v>20</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" s="14">
         <v>10</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="14">
         <v>10</v>
@@ -1746,20 +1747,20 @@
         <v>9999</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F62" s="16"/>
     </row>
@@ -1781,47 +1782,47 @@
         <v>20</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="14">
         <v>11</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="14">
         <v>11</v>
@@ -1830,20 +1831,20 @@
         <v>9999</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F68" s="16"/>
     </row>
@@ -1865,47 +1866,47 @@
         <v>20</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="14">
         <v>12</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="14">
         <v>12</v>
@@ -1914,20 +1915,20 @@
         <v>9999</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F74" s="16"/>
     </row>
@@ -1949,47 +1950,47 @@
         <v>20</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78" s="14">
         <v>13</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C79" s="14">
         <v>13</v>
@@ -1998,20 +1999,20 @@
         <v>9999</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F80" s="16"/>
     </row>
@@ -2033,47 +2034,47 @@
         <v>20</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" s="14">
         <v>14</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" s="14">
         <v>14</v>
@@ -2082,20 +2083,20 @@
         <v>9999</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F86" s="16"/>
     </row>
@@ -2117,47 +2118,47 @@
         <v>20</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C90" s="14">
         <v>15</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C91" s="14">
         <v>15</v>
@@ -2166,20 +2167,20 @@
         <v>9999</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F92" s="16"/>
     </row>
@@ -2201,47 +2202,47 @@
         <v>20</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C96" s="14">
         <v>16</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C97" s="14">
         <v>16</v>
@@ -2250,20 +2251,20 @@
         <v>9999</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F98" s="16"/>
     </row>
@@ -2285,47 +2286,47 @@
         <v>20</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C102" s="14">
         <v>17</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C103" s="14">
         <v>17</v>
@@ -2334,20 +2335,20 @@
         <v>9999</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F104" s="16"/>
     </row>
@@ -2369,47 +2370,47 @@
         <v>20</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F106" s="16"/>
     </row>
     <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C108" s="14">
         <v>18</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C109" s="14">
         <v>18</v>
@@ -2418,20 +2419,20 @@
         <v>9999</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F109" s="16"/>
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F110" s="16"/>
     </row>
@@ -2453,17 +2454,17 @@
         <v>20</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D112" s="21"/>
       <c r="E112" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B113" s="15"/>
       <c r="D113" s="21"/>
@@ -2471,13 +2472,13 @@
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2485,11 +2486,11 @@
         <v>20</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2534,27 +2535,27 @@
         <v>9</v>
       </c>
       <c r="D119" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F119" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>26</v>
+      <c r="F120" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,27 +2563,27 @@
         <v>19</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F121" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2600,27 +2601,30 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C125" s="1">
         <v>4</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2641,11 +2645,11 @@
         <v>20</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F127" s="16"/>
     </row>
@@ -2664,26 +2668,26 @@
     </row>
     <row r="129" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C129" s="14">
         <v>5</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C130" s="14">
         <v>5</v>
@@ -2692,7 +2696,7 @@
         <v>1001</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F130" s="16"/>
     </row>
@@ -2701,11 +2705,11 @@
         <v>20</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F131" s="16"/>
     </row>

--- a/moyusi/Keywords/Web/业绩模块-成交金额业绩.xlsx
+++ b/moyusi/Keywords/Web/业绩模块-成交金额业绩.xlsx
@@ -113,9 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>带客业绩</t>
-  </si>
-  <si>
     <t>检查点-带客业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,18 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>带客新业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带客新业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-带客新业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按周按月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,6 +436,22 @@
   </si>
   <si>
     <t>检查点-编辑业绩窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-成交金额业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额新业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-金额新业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:XFD124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,11 +960,11 @@
         <v>20</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -1012,14 +1013,14 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>25</v>
+      <c r="D9" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>25</v>
+        <v>103</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1027,13 +1028,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1041,10 +1042,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -1067,13 +1068,13 @@
       </c>
       <c r="B13" s="15"/>
       <c r="D13" s="21" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1082,13 +1083,13 @@
       </c>
       <c r="B14" s="15"/>
       <c r="D14" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1096,11 +1097,11 @@
         <v>20</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" s="16"/>
     </row>
@@ -1110,13 +1111,13 @@
       </c>
       <c r="B16" s="15"/>
       <c r="D16" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1134,17 +1135,17 @@
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" s="14">
         <v>3</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -1166,11 +1167,11 @@
         <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -1189,26 +1190,26 @@
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="14">
         <v>4</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" s="14">
         <v>4</v>
@@ -1217,20 +1218,20 @@
         <v>9999</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F24" s="16"/>
     </row>
@@ -1252,60 +1253,60 @@
         <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" s="14">
         <v>5</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C30" s="14">
         <v>5</v>
@@ -1314,20 +1315,20 @@
         <v>9999</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F31" s="16"/>
     </row>
@@ -1349,60 +1350,60 @@
         <v>20</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" s="14">
         <v>6</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37" s="14">
         <v>6</v>
@@ -1411,20 +1412,20 @@
         <v>9999</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F38" s="16"/>
     </row>
@@ -1433,60 +1434,60 @@
         <v>20</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" s="14">
         <v>7</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" s="14">
         <v>7</v>
@@ -1495,20 +1496,20 @@
         <v>9999</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F44" s="16"/>
     </row>
@@ -1530,47 +1531,47 @@
         <v>20</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C48" s="14">
         <v>8</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C49" s="14">
         <v>8</v>
@@ -1579,20 +1580,20 @@
         <v>9999</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="16"/>
     </row>
@@ -1614,47 +1615,47 @@
         <v>20</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C54" s="14">
         <v>9</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C55" s="14">
         <v>9</v>
@@ -1663,20 +1664,20 @@
         <v>9999</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F56" s="16"/>
     </row>
@@ -1698,47 +1699,47 @@
         <v>20</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C60" s="14">
         <v>10</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="14">
         <v>10</v>
@@ -1747,20 +1748,20 @@
         <v>9999</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F62" s="16"/>
     </row>
@@ -1782,47 +1783,47 @@
         <v>20</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C66" s="14">
         <v>11</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C67" s="14">
         <v>11</v>
@@ -1831,20 +1832,20 @@
         <v>9999</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F68" s="16"/>
     </row>
@@ -1866,47 +1867,47 @@
         <v>20</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C72" s="14">
         <v>12</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C73" s="14">
         <v>12</v>
@@ -1915,20 +1916,20 @@
         <v>9999</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F74" s="16"/>
     </row>
@@ -1950,47 +1951,47 @@
         <v>20</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C78" s="14">
         <v>13</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C79" s="14">
         <v>13</v>
@@ -1999,20 +2000,20 @@
         <v>9999</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="16"/>
     </row>
@@ -2034,47 +2035,47 @@
         <v>20</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C84" s="14">
         <v>14</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C85" s="14">
         <v>14</v>
@@ -2083,20 +2084,20 @@
         <v>9999</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F86" s="16"/>
     </row>
@@ -2118,47 +2119,47 @@
         <v>20</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C90" s="14">
         <v>15</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C91" s="14">
         <v>15</v>
@@ -2167,20 +2168,20 @@
         <v>9999</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F92" s="16"/>
     </row>
@@ -2202,47 +2203,47 @@
         <v>20</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C96" s="14">
         <v>16</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C97" s="14">
         <v>16</v>
@@ -2251,20 +2252,20 @@
         <v>9999</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F98" s="16"/>
     </row>
@@ -2286,47 +2287,47 @@
         <v>20</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C102" s="14">
         <v>17</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C103" s="14">
         <v>17</v>
@@ -2335,20 +2336,20 @@
         <v>9999</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F104" s="16"/>
     </row>
@@ -2370,47 +2371,47 @@
         <v>20</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F106" s="16"/>
     </row>
     <row r="107" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C108" s="14">
         <v>18</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C109" s="14">
         <v>18</v>
@@ -2419,20 +2420,20 @@
         <v>9999</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F109" s="16"/>
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F110" s="16"/>
     </row>
@@ -2454,17 +2455,17 @@
         <v>20</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D112" s="21"/>
       <c r="E112" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B113" s="15"/>
       <c r="D113" s="21"/>
@@ -2472,13 +2473,13 @@
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2486,11 +2487,11 @@
         <v>20</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2549,13 +2550,13 @@
         <v>9</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -2563,27 +2564,27 @@
         <v>19</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F121" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2604,27 +2605,27 @@
         <v>9</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C125" s="1">
         <v>4</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,11 +2646,11 @@
         <v>20</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F127" s="16"/>
     </row>
@@ -2668,26 +2669,26 @@
     </row>
     <row r="129" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C129" s="14">
         <v>5</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C130" s="14">
         <v>5</v>
@@ -2696,7 +2697,7 @@
         <v>1001</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F130" s="16"/>
     </row>
@@ -2705,11 +2706,11 @@
         <v>20</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F131" s="16"/>
     </row>
